--- a/eg/target.xlsx
+++ b/eg/target.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Summer 2024\hengda_py\5月_eg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Summer 2024\hengda_py\eg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2B027-43BE-437B-B649-CE1A6CCE16C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FFE120-13D5-4617-B052-1769AFFBF78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopRows" sheetId="1" r:id="rId1"/>
@@ -2663,16 +2663,20 @@
   </sheetPr>
   <dimension ref="A1:Q600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" style="4" customWidth="1"/>
-    <col min="4" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="43.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.08984375" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
